--- a/StructureDefinition-profile-ServiceRequest.xlsx
+++ b/StructureDefinition-profile-ServiceRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="529">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7904312-06:00</t>
+    <t>2026-02-09T22:05:43.3223014-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -432,33 +432,73 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:focus</t>
+  </si>
+  <si>
+    <t>focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ServiceRequest.focus from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Resource in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ServiceRequest.focus` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `ServiceRequest.focus` is will have a context of ServiceRequest based on following the parent source element upwards and mapping to `ServiceRequest`.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:bodyStructure</t>
+  </si>
+  <si>
+    <t>bodyStructure</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ServiceRequest.bodyStructure from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/BodyStructure in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ServiceRequest.bodyStructure` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `ServiceRequest.bodyStructure` is will have a context of ServiceRequest based on following the parent source element upwards and mapping to `ServiceRequest`.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>ServiceRequest.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -466,6 +506,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -837,23 +880,16 @@
     <t>ServiceRequest.code.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.extension:code</t>
+  </si>
+  <si>
+    <t>code</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ServiceRequest.code|0.0.1-snapshot-3}
@@ -866,6 +902,9 @@
     <t>A code or reference that identifies a particular service (i.e., procedure, diagnostic investigation, or panel of investigations) that have been requested.</t>
   </si>
   <si>
+    <t>Element `ServiceRequest.code` is mapped to FHIR R4 element `ServiceRequest.code`.</t>
+  </si>
+  <si>
     <t>ServiceRequest.code.coding</t>
   </si>
   <si>
@@ -953,6 +992,12 @@
     <t>ServiceRequest.orderDetail.extension</t>
   </si>
   <si>
+    <t>ServiceRequest.orderDetail.extension:orderDetail</t>
+  </si>
+  <si>
+    <t>orderDetail</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ServiceRequest.orderDetail|0.0.1-snapshot-3}
 </t>
   </si>
@@ -960,6 +1005,9 @@
     <t>Cross-version extension for ServiceRequest.orderDetail from R5 for use in FHIR R4</t>
   </si>
   <si>
+    <t>Element `ServiceRequest.orderDetail` is mapped to FHIR R4 element `ServiceRequest.orderDetail`.</t>
+  </si>
+  <si>
     <t>ServiceRequest.orderDetail.coding</t>
   </si>
   <si>
@@ -1375,11 +1423,20 @@
     <t>ServiceRequest.supportingInfo.extension</t>
   </si>
   <si>
+    <t>ServiceRequest.supportingInfo.extension:supportingInfo</t>
+  </si>
+  <si>
+    <t>supportingInfo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ServiceRequest.supportingInfo|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for ServiceRequest.supportingInfo from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `ServiceRequest.supportingInfo` is mapped to FHIR R4 element `ServiceRequest.supportingInfo`.</t>
   </si>
   <si>
     <t>ServiceRequest.supportingInfo.reference</t>
@@ -1555,11 +1612,20 @@
     <t>ServiceRequest.patientInstruction.extension</t>
   </si>
   <si>
+    <t>ServiceRequest.patientInstruction.extension:patientInstruction</t>
+  </si>
+  <si>
+    <t>patientInstruction</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ServiceRequest.patientInstruction|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for ServiceRequest.patientInstruction from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `ServiceRequest.patientInstruction` is mapped to FHIR R4 element `ServiceRequest.patientInstruction`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1909,7 +1975,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO64"/>
+  <dimension ref="A1:AO66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1918,9 +1984,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.51171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.52734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="36.51171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="15.421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2909,7 +2975,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2928,17 +2994,15 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>81</v>
@@ -2975,16 +3039,14 @@
         <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>140</v>
@@ -3008,7 +3070,7 @@
         <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>81</v>
@@ -3022,11 +3084,13 @@
         <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3039,26 +3103,24 @@
         <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>81</v>
       </c>
@@ -3106,7 +3168,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3127,7 +3189,7 @@
         <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>81</v>
@@ -3138,12 +3200,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>81</v>
       </c>
@@ -3152,7 +3216,7 @@
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>81</v>
@@ -3161,19 +3225,19 @@
         <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3223,7 +3287,7 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3235,34 +3299,34 @@
         <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>156</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3275,24 +3339,26 @@
         <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>81</v>
       </c>
@@ -3340,7 +3406,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3352,16 +3418,16 @@
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>81</v>
@@ -3372,10 +3438,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3398,16 +3464,16 @@
         <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3457,7 +3523,7 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3472,19 +3538,19 @@
         <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AO13" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="14">
@@ -3496,7 +3562,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3515,15 +3581,17 @@
         <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>81</v>
@@ -3611,7 +3679,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3630,15 +3698,17 @@
         <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>81</v>
@@ -3702,13 +3772,13 @@
         <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>81</v>
@@ -3719,21 +3789,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>81</v>
@@ -3745,20 +3815,16 @@
         <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>81</v>
       </c>
@@ -3806,13 +3872,13 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>81</v>
@@ -3821,13 +3887,13 @@
         <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -3838,43 +3904,41 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>81</v>
@@ -3899,13 +3963,13 @@
         <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>81</v>
@@ -3923,13 +3987,13 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>81</v>
@@ -3938,35 +4002,35 @@
         <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>206</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>90</v>
@@ -3975,24 +4039,26 @@
         <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>81</v>
       </c>
@@ -4016,34 +4082,34 @@
         <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="AG18" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>90</v>
@@ -4055,16 +4121,16 @@
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
@@ -4072,10 +4138,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4083,35 +4149,33 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>81</v>
       </c>
@@ -4135,13 +4199,13 @@
         <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>81</v>
@@ -4159,13 +4223,13 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>81</v>
@@ -4174,27 +4238,27 @@
         <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>81</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4202,7 +4266,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>90</v>
@@ -4211,7 +4275,7 @@
         <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>91</v>
@@ -4220,19 +4284,19 @@
         <v>110</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q20" t="s" s="2">
-        <v>230</v>
-      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
         <v>81</v>
       </c>
@@ -4252,13 +4316,13 @@
         <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>81</v>
@@ -4276,10 +4340,10 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>90</v>
@@ -4291,16 +4355,16 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>234</v>
+        <v>133</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4308,10 +4372,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4322,38 +4386,36 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q21" t="s" s="2">
-        <v>243</v>
-      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
         <v>81</v>
       </c>
@@ -4373,13 +4435,13 @@
         <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>81</v>
@@ -4397,13 +4459,13 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>81</v>
@@ -4412,16 +4474,16 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>244</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>81</v>
+        <v>228</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4429,14 +4491,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4455,22 +4517,22 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="R22" t="s" s="2">
         <v>81</v>
       </c>
@@ -4490,13 +4552,13 @@
         <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>81</v>
@@ -4514,7 +4576,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4529,27 +4591,27 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4566,26 +4628,32 @@
         <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="R23" t="s" s="2">
         <v>81</v>
       </c>
@@ -4629,7 +4697,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4641,16 +4709,16 @@
         <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>81</v>
+        <v>257</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4661,22 +4729,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>81</v>
+        <v>260</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G24" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
       </c>
@@ -4684,18 +4752,20 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>136</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4720,66 +4790,66 @@
         <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>81</v>
+        <v>264</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AC24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AD24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AF24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4802,17 +4872,15 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -4861,19 +4929,19 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>81</v>
@@ -4882,7 +4950,7 @@
         <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -4893,10 +4961,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4916,23 +4984,19 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>275</v>
+        <v>135</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>276</v>
+        <v>136</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>81</v>
       </c>
@@ -4968,19 +5032,19 @@
         <v>81</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4992,16 +5056,16 @@
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>281</v>
+        <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -5012,12 +5076,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5035,23 +5101,21 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="N27" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>287</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5099,28 +5163,28 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>289</v>
+        <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -5131,14 +5195,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5157,18 +5221,20 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>217</v>
+        <v>287</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5192,13 +5258,13 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
@@ -5216,7 +5282,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5225,7 +5291,7 @@
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>298</v>
+        <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>102</v>
@@ -5234,24 +5300,24 @@
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5271,19 +5337,23 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5331,7 +5401,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5343,16 +5413,16 @@
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -5363,18 +5433,18 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>81</v>
+        <v>304</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>80</v>
@@ -5386,18 +5456,20 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>136</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5422,31 +5494,31 @@
         <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>81</v>
+        <v>308</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>81</v>
+        <v>309</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>269</v>
+        <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5455,33 +5527,33 @@
         <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>81</v>
+        <v>310</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>81</v>
+        <v>311</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>81</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5492,7 +5564,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
@@ -5504,17 +5576,15 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5563,19 +5633,19 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>81</v>
@@ -5584,7 +5654,7 @@
         <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -5595,10 +5665,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5618,23 +5688,19 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>275</v>
+        <v>135</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>276</v>
+        <v>136</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5670,19 +5736,19 @@
         <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5694,16 +5760,16 @@
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>281</v>
+        <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5714,12 +5780,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="D33" t="s" s="2">
         <v>81</v>
       </c>
@@ -5728,7 +5796,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>81</v>
@@ -5737,23 +5805,21 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>259</v>
+        <v>316</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>81</v>
       </c>
@@ -5801,28 +5867,28 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>289</v>
+        <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5833,10 +5899,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5847,7 +5913,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
@@ -5859,17 +5925,19 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5918,13 +5986,13 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
@@ -5936,10 +6004,10 @@
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5950,10 +6018,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5961,7 +6029,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>90</v>
@@ -5976,16 +6044,20 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
       </c>
@@ -6033,10 +6105,10 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>90</v>
@@ -6048,19 +6120,19 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>316</v>
+        <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>319</v>
+        <v>81</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>320</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
@@ -6072,7 +6144,7 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>322</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6091,16 +6163,18 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>81</v>
       </c>
@@ -6163,35 +6237,35 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AL36" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>328</v>
-      </c>
       <c r="AN36" t="s" s="2">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>330</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>332</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>90</v>
@@ -6206,13 +6280,13 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6263,10 +6337,10 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>90</v>
@@ -6278,31 +6352,31 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>81</v>
+        <v>337</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6321,13 +6395,13 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6354,13 +6428,13 @@
         <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>345</v>
+        <v>81</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>346</v>
+        <v>81</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>81</v>
@@ -6378,7 +6452,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6393,31 +6467,31 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>81</v>
+        <v>341</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>81</v>
+        <v>342</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>81</v>
+        <v>344</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6436,13 +6510,13 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6493,7 +6567,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6508,31 +6582,31 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>358</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>360</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6551,17 +6625,15 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6586,13 +6658,13 @@
         <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>81</v>
+        <v>360</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>81</v>
+        <v>361</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>81</v>
@@ -6610,7 +6682,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6625,31 +6697,31 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>365</v>
+        <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>366</v>
+        <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>368</v>
+        <v>81</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6668,17 +6740,15 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>217</v>
+        <v>366</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6703,13 +6773,13 @@
         <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>375</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>376</v>
+        <v>81</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>81</v>
@@ -6727,7 +6797,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6742,38 +6812,38 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>81</v>
+        <v>373</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
@@ -6785,16 +6855,16 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6844,13 +6914,13 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
@@ -6859,38 +6929,38 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>81</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>81</v>
+        <v>386</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
@@ -6902,15 +6972,17 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -6935,13 +7007,13 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -6959,13 +7031,13 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
@@ -6974,16 +7046,16 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>81</v>
+        <v>392</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>81</v>
+        <v>393</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
@@ -6998,7 +7070,7 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>81</v>
+        <v>397</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7017,15 +7089,17 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -7089,16 +7163,16 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>81</v>
+        <v>402</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>81</v>
+        <v>403</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -7106,10 +7180,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7132,17 +7206,15 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7167,31 +7239,31 @@
         <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Z45" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7206,16 +7278,16 @@
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>406</v>
+        <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>407</v>
+        <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -7223,10 +7295,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7249,17 +7321,15 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="N46" t="s" s="2">
-        <v>414</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -7308,7 +7378,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7323,16 +7393,16 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>415</v>
+        <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>416</v>
+        <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
@@ -7340,10 +7410,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7363,18 +7433,20 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>419</v>
+        <v>230</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7399,13 +7471,13 @@
         <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>81</v>
+        <v>420</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>81</v>
@@ -7423,7 +7495,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7438,16 +7510,16 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -7462,7 +7534,7 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>426</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7478,19 +7550,19 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7555,16 +7627,16 @@
         <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AM48" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="AN48" t="s" s="2">
-        <v>81</v>
+        <v>424</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>81</v>
@@ -7572,10 +7644,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7586,7 +7658,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>81</v>
@@ -7598,13 +7670,13 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>259</v>
+        <v>434</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>260</v>
+        <v>435</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>261</v>
+        <v>436</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7655,28 +7727,28 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>262</v>
+        <v>433</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>437</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>81</v>
+        <v>438</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>263</v>
+        <v>439</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -7687,18 +7759,18 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>81</v>
+        <v>441</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>80</v>
@@ -7713,15 +7785,17 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>136</v>
+        <v>442</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>265</v>
+        <v>443</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -7758,19 +7832,19 @@
         <v>81</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>269</v>
+        <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>270</v>
+        <v>440</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7782,16 +7856,16 @@
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>81</v>
+        <v>446</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>81</v>
+        <v>447</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -7802,10 +7876,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7816,7 +7890,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>81</v>
@@ -7828,17 +7902,15 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>436</v>
+        <v>272</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>437</v>
+        <v>273</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -7887,19 +7959,19 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>81</v>
@@ -7908,7 +7980,7 @@
         <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -7919,10 +7991,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7933,7 +8005,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>81</v>
@@ -7942,20 +8014,18 @@
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>259</v>
+        <v>135</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>439</v>
+        <v>136</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -7992,31 +8062,31 @@
         <v>81</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>442</v>
+        <v>279</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>443</v>
+        <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>81</v>
@@ -8025,7 +8095,7 @@
         <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8036,12 +8106,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="D53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8050,7 +8122,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
@@ -8059,19 +8131,19 @@
         <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>104</v>
+        <v>453</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8097,13 +8169,13 @@
         <v>81</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>448</v>
+        <v>81</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>449</v>
+        <v>81</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>450</v>
+        <v>81</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>81</v>
@@ -8121,19 +8193,19 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>451</v>
+        <v>279</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
@@ -8142,7 +8214,7 @@
         <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8153,10 +8225,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8179,16 +8251,16 @@
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>148</v>
+        <v>272</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8238,7 +8310,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8247,7 +8319,7 @@
         <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>81</v>
+        <v>461</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>102</v>
@@ -8259,7 +8331,7 @@
         <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8270,10 +8342,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8296,16 +8368,16 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>259</v>
+        <v>104</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8331,13 +8403,13 @@
         <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>81</v>
+        <v>466</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>81</v>
+        <v>467</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>81</v>
+        <v>468</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>81</v>
@@ -8355,7 +8427,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8387,10 +8459,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8401,7 +8473,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>81</v>
@@ -8413,16 +8485,16 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>463</v>
+        <v>161</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8472,13 +8544,13 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>81</v>
@@ -8490,10 +8562,10 @@
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>467</v>
+        <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>468</v>
+        <v>167</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -8504,21 +8576,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>470</v>
+        <v>81</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>81</v>
@@ -8530,20 +8602,18 @@
         <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>217</v>
+        <v>272</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>81</v>
       </c>
@@ -8567,13 +8637,13 @@
         <v>81</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>476</v>
+        <v>81</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>81</v>
@@ -8591,13 +8661,13 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>81</v>
@@ -8609,24 +8679,24 @@
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>467</v>
+        <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>477</v>
+        <v>133</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>478</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8646,18 +8716,20 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>50</v>
+        <v>482</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>81</v>
@@ -8706,7 +8778,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8721,38 +8793,38 @@
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>482</v>
+        <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>299</v>
+        <v>485</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>484</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>81</v>
+        <v>488</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>81</v>
@@ -8764,16 +8836,20 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
@@ -8797,13 +8873,13 @@
         <v>81</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>81</v>
+        <v>493</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>81</v>
+        <v>494</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>81</v>
@@ -8821,13 +8897,13 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>81</v>
@@ -8839,24 +8915,24 @@
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>299</v>
+        <v>485</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>81</v>
+        <v>496</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8867,7 +8943,7 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>81</v>
@@ -8879,13 +8955,13 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>259</v>
+        <v>498</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>490</v>
+        <v>50</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8936,42 +9012,42 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>262</v>
+        <v>497</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>81</v>
+        <v>311</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>81</v>
+        <v>502</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8979,11 +9055,11 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G61" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H61" t="s" s="2">
         <v>81</v>
       </c>
@@ -8991,16 +9067,16 @@
         <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>136</v>
+        <v>272</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>265</v>
+        <v>504</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>266</v>
+        <v>505</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9039,38 +9115,40 @@
         <v>81</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AC61" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>269</v>
+        <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>270</v>
+        <v>503</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>81</v>
+        <v>311</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>81</v>
+        <v>506</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -9081,10 +9159,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9095,7 +9173,7 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>81</v>
@@ -9107,13 +9185,13 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>493</v>
+        <v>272</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9164,19 +9242,19 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>495</v>
+        <v>81</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>81</v>
@@ -9196,10 +9274,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9210,7 +9288,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
@@ -9222,13 +9300,13 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>259</v>
+        <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>497</v>
+        <v>136</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>498</v>
+        <v>137</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9252,7 +9330,7 @@
         <v>81</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>499</v>
+        <v>81</v>
       </c>
       <c r="X63" t="s" s="2">
         <v>81</v>
@@ -9267,31 +9345,29 @@
         <v>81</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC63" s="2"/>
       <c r="AD63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>500</v>
+        <v>279</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>81</v>
@@ -9311,12 +9387,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>510</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="D64" t="s" s="2">
         <v>81</v>
       </c>
@@ -9337,16 +9415,16 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9396,7 +9474,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>501</v>
+        <v>279</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9405,24 +9483,256 @@
         <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>81</v>
+        <v>516</v>
       </c>
       <c r="AJ64" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AK64" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AK66" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AM64" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO64" t="s" s="2">
+      <c r="AM66" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO66" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/StructureDefinition-profile-ServiceRequest.xlsx
+++ b/StructureDefinition-profile-ServiceRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.3223014-06:00</t>
+    <t>2026-02-17T14:42:26.8982766-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -473,7 +473,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ServiceRequest.focus` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ServiceRequest.focus` is will have a context of ServiceRequest based on following the parent source element upwards and mapping to `ServiceRequest`.</t>
+Element `ServiceRequest.focus` has a context of ServiceRequest based on following the parent source element upwards and mapping to `ServiceRequest`.</t>
   </si>
   <si>
     <t>ServiceRequest.extension:bodyStructure</t>
@@ -489,7 +489,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ServiceRequest.bodyStructure` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ServiceRequest.bodyStructure` is will have a context of ServiceRequest based on following the parent source element upwards and mapping to `ServiceRequest`.</t>
+Element `ServiceRequest.bodyStructure` has a context of ServiceRequest based on following the parent source element upwards and mapping to `ServiceRequest`.</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -902,7 +902,7 @@
     <t>A code or reference that identifies a particular service (i.e., procedure, diagnostic investigation, or panel of investigations) that have been requested.</t>
   </si>
   <si>
-    <t>Element `ServiceRequest.code` is mapped to FHIR R4 element `ServiceRequest.code`.</t>
+    <t>Element `ServiceRequest.code` has is mapped to FHIR R4 element `ServiceRequest.code`, but has no comparisons.</t>
   </si>
   <si>
     <t>ServiceRequest.code.coding</t>
@@ -1005,7 +1005,7 @@
     <t>Cross-version extension for ServiceRequest.orderDetail from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `ServiceRequest.orderDetail` is mapped to FHIR R4 element `ServiceRequest.orderDetail`.</t>
+    <t>Element `ServiceRequest.orderDetail` has is mapped to FHIR R4 element `ServiceRequest.orderDetail`, but has no comparisons.</t>
   </si>
   <si>
     <t>ServiceRequest.orderDetail.coding</t>
@@ -1436,7 +1436,7 @@
     <t>Cross-version extension for ServiceRequest.supportingInfo from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `ServiceRequest.supportingInfo` is mapped to FHIR R4 element `ServiceRequest.supportingInfo`.</t>
+    <t>Element `ServiceRequest.supportingInfo` has is mapped to FHIR R4 element `ServiceRequest.supportingInfo`, but has no comparisons.</t>
   </si>
   <si>
     <t>ServiceRequest.supportingInfo.reference</t>
@@ -1625,7 +1625,7 @@
     <t>Cross-version extension for ServiceRequest.patientInstruction from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `ServiceRequest.patientInstruction` is mapped to FHIR R4 element `ServiceRequest.patientInstruction`.</t>
+    <t>Element `ServiceRequest.patientInstruction` has is mapped to FHIR R4 element `ServiceRequest.patientInstruction`, but has no comparisons.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1

--- a/StructureDefinition-profile-ServiceRequest.xlsx
+++ b/StructureDefinition-profile-ServiceRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8982766-06:00</t>
+    <t>2026-02-20T11:59:20.9442126-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ServiceRequest|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ServiceRequest</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -462,7 +462,7 @@
     <t>focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -488,7 +488,8 @@
     <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/BodyStructure in FHIR R4</t>
   </si>
   <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ServiceRequest.bodyStructure` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ServiceRequest.bodyStructure`: `http://hl7.org/fhir/StructureDefinition/procedure-targetBodyStructure`.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ServiceRequest.bodyStructure` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `ServiceRequest.bodyStructure` has a context of ServiceRequest based on following the parent source element upwards and mapping to `ServiceRequest`.</t>
   </si>
   <si>
@@ -892,7 +893,7 @@
     <t>code</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ServiceRequest.code|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ServiceRequest.code}
 </t>
   </si>
   <si>
@@ -998,7 +999,7 @@
     <t>orderDetail</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ServiceRequest.orderDetail|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ServiceRequest.orderDetail}
 </t>
   </si>
   <si>
@@ -1292,7 +1293,7 @@
     <t>A location type where services are delivered.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
   </si>
   <si>
     <t>.participation[typeCode=LOC].role[scoper.determinerCode=KIND].code</t>
@@ -1429,7 +1430,7 @@
     <t>supportingInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ServiceRequest.supportingInfo|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ServiceRequest.supportingInfo}
 </t>
   </si>
   <si>
@@ -1618,7 +1619,7 @@
     <t>patientInstruction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ServiceRequest.patientInstruction|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ServiceRequest.patientInstruction}
 </t>
   </si>
   <si>
@@ -2009,7 +2010,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="162.58984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.83203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.92578125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-ServiceRequest.xlsx
+++ b/StructureDefinition-profile-ServiceRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="520">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9442126-06:00</t>
+    <t>2026-02-21T13:36:54.3488215-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ServiceRequest</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ServiceRequest|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -432,10 +432,411 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>ServiceRequest.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
+  </si>
+  <si>
+    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
+  </si>
+  <si>
+    <t>Request.identifier</t>
+  </si>
+  <si>
+    <t>ORC.2, ORC.3, RF1-6 / RF1-11,</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.identifier</t>
+  </si>
+  <si>
+    <t>ServiceRequest.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(ActivityDefinition|4.0.1|PlanDefinition|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Instantiates FHIR protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
+  </si>
+  <si>
+    <t>Note: This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.instantiatesUri</t>
+  </si>
+  <si>
+    <t>Instantiates external protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
+  </si>
+  <si>
+    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesUri</t>
+  </si>
+  <si>
+    <t>ServiceRequest.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|ServiceRequest|4.0.1|MedicationRequest|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>What request fulfills</t>
+  </si>
+  <si>
+    <t>Plan/proposal/order fulfilled by this request.</t>
+  </si>
+  <si>
+    <t>Request.basedOn</t>
+  </si>
+  <si>
+    <t>ORC.8 (plus others)</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.replaces</t>
+  </si>
+  <si>
+    <t>supersedes
+priorrenewed order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>What request replaces</t>
+  </si>
+  <si>
+    <t>The request takes the place of the referenced completed or terminated request(s).</t>
+  </si>
+  <si>
+    <t>Request.replaces</t>
+  </si>
+  <si>
+    <t>Handled by message location of ORC (ORC.1=RO or RU)</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RPLC].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.requisition</t>
+  </si>
+  <si>
+    <t>grouperId
+groupIdentifier</t>
+  </si>
+  <si>
+    <t>Composite Request ID</t>
+  </si>
+  <si>
+    <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
+  </si>
+  <si>
+    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition. Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
+  </si>
+  <si>
+    <t>Some business processes need to know if multiple items were ordered as part of the same "requisition" for billing or other purposes.</t>
+  </si>
+  <si>
+    <t>Request.groupIdentifier</t>
+  </si>
+  <si>
+    <t>ORC.4</t>
+  </si>
+  <si>
+    <t>.inboundRelationship(typeCode=COMP].source[moodCode=INT].identifier</t>
+  </si>
+  <si>
+    <t>ServiceRequest.status</t>
+  </si>
+  <si>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>The status of the order.</t>
+  </si>
+  <si>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of a service order.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status</t>
+  </si>
+  <si>
+    <t>ORC.5,RF1-1</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Action.currentStatus</t>
+  </si>
+  <si>
+    <t>ServiceRequest.intent</t>
+  </si>
+  <si>
+    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
+  </si>
+  <si>
+    <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
+  </si>
+  <si>
+    <t>The kind of service request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.intent</t>
+  </si>
+  <si>
+    <t>.moodCode (nuances beyond PRP/PLAN/RQO would need to be elsewhere)</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>ServiceRequest.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of service</t>
+  </si>
+  <si>
+    <t>A code that classifies the service for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
+  </si>
+  <si>
+    <t>There may be multiple axis of categorization depending on the context or use case for retrieving or displaying the resource.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what service request are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Classification of the requested service.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-category|4.0.1</t>
+  </si>
+  <si>
+    <t>RF1-5</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="INT"].code</t>
+  </si>
+  <si>
+    <t>ServiceRequest.priority</t>
+  </si>
+  <si>
+    <t>routine | urgent | asap | stat</t>
+  </si>
+  <si>
+    <t>Indicates how quickly the ServiceRequest should be addressed with respect to other requests.</t>
+  </si>
+  <si>
+    <t>If missing, this task should be performed with normal priority</t>
+  </si>
+  <si>
+    <t>Identifies the level of importance to be assigned to actioning the request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.priority</t>
+  </si>
+  <si>
+    <t>TQ1.9, RF1-2</t>
+  </si>
+  <si>
+    <t>.priorityCode</t>
+  </si>
+  <si>
+    <t>FiveWs.grade</t>
+  </si>
+  <si>
+    <t>ServiceRequest.doNotPerform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>True if service/procedure should not be performed</t>
+  </si>
+  <si>
+    <t>Set this to true if the record is saying that the service/procedure should NOT be performed.</t>
+  </si>
+  <si>
+    <t>In general, only the code and timeframe will be present, though occasional additional qualifiers such as body site or even performer could be included to narrow the scope of the prohibition.  If the ServiceRequest.code and ServiceRequest.doNotPerform both contain negation, that will reinforce prohibition and should not have a double negative interpretation.</t>
+  </si>
+  <si>
+    <t>Used for do not ambulate, do not elevate head of bed, do not flush NG tube, do not take blood pressure on a certain arm, etc.</t>
+  </si>
+  <si>
+    <t>If missing, the request is a positive request e.g. "do perform"</t>
+  </si>
+  <si>
+    <t>Request.doNotPerform</t>
+  </si>
+  <si>
+    <t>.actionNegationInd</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service requested
+</t>
+  </si>
+  <si>
+    <t>What is being requested/ordered</t>
+  </si>
+  <si>
+    <t>A code that identifies a particular service (i.e., procedure, diagnostic investigation, or panel of investigations) that have been requested.</t>
+  </si>
+  <si>
+    <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
+  </si>
+  <si>
+    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred].</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-code|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.code</t>
+  </si>
+  <si>
+    <t>PR1-3 / OBR-4  (varies by domain)</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>Procedure.procedureCode</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.extension</t>
+  </si>
+  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -446,464 +847,32 @@
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>ServiceRequest.extension:focus</t>
-  </si>
-  <si>
-    <t>focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.extension:code</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ServiceRequest.code|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ServiceRequest.focus from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Resource in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ServiceRequest.focus` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ServiceRequest.focus` has a context of ServiceRequest based on following the parent source element upwards and mapping to `ServiceRequest`.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.extension:bodyStructure</t>
-  </si>
-  <si>
-    <t>bodyStructure</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ServiceRequest.bodyStructure from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/BodyStructure in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ServiceRequest.bodyStructure`: `http://hl7.org/fhir/StructureDefinition/procedure-targetBodyStructure`.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ServiceRequest.bodyStructure` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ServiceRequest.bodyStructure` has a context of ServiceRequest based on following the parent source element upwards and mapping to `ServiceRequest`.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
-  </si>
-  <si>
-    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
-  </si>
-  <si>
-    <t>Request.identifier</t>
-  </si>
-  <si>
-    <t>ORC.2, ORC.3, RF1-6 / RF1-11,</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.identifier</t>
-  </si>
-  <si>
-    <t>ServiceRequest.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(ActivityDefinition|4.0.1|PlanDefinition|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Instantiates FHIR protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
-  </si>
-  <si>
-    <t>Note: This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.instantiatesUri</t>
-  </si>
-  <si>
-    <t>Instantiates external protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
-  </si>
-  <si>
-    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesUri</t>
-  </si>
-  <si>
-    <t>ServiceRequest.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|4.0.1|ServiceRequest|4.0.1|MedicationRequest|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>What request fulfills</t>
-  </si>
-  <si>
-    <t>Plan/proposal/order fulfilled by this request.</t>
-  </si>
-  <si>
-    <t>Request.basedOn</t>
-  </si>
-  <si>
-    <t>ORC.8 (plus others)</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.replaces</t>
-  </si>
-  <si>
-    <t>supersedes
-priorrenewed order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>What request replaces</t>
-  </si>
-  <si>
-    <t>The request takes the place of the referenced completed or terminated request(s).</t>
-  </si>
-  <si>
-    <t>Request.replaces</t>
-  </si>
-  <si>
-    <t>Handled by message location of ORC (ORC.1=RO or RU)</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RPLC].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.requisition</t>
-  </si>
-  <si>
-    <t>grouperId
-groupIdentifier</t>
-  </si>
-  <si>
-    <t>Composite Request ID</t>
-  </si>
-  <si>
-    <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
-  </si>
-  <si>
-    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition. Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
-  </si>
-  <si>
-    <t>Some business processes need to know if multiple items were ordered as part of the same "requisition" for billing or other purposes.</t>
-  </si>
-  <si>
-    <t>Request.groupIdentifier</t>
-  </si>
-  <si>
-    <t>ORC.4</t>
-  </si>
-  <si>
-    <t>.inboundRelationship(typeCode=COMP].source[moodCode=INT].identifier</t>
-  </si>
-  <si>
-    <t>ServiceRequest.status</t>
-  </si>
-  <si>
-    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>The status of the order.</t>
-  </si>
-  <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The status of a service order.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status</t>
-  </si>
-  <si>
-    <t>ORC.5,RF1-1</t>
-  </si>
-  <si>
-    <t>.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Action.currentStatus</t>
-  </si>
-  <si>
-    <t>ServiceRequest.intent</t>
-  </si>
-  <si>
-    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
-  </si>
-  <si>
-    <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
-  </si>
-  <si>
-    <t>The kind of service request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.intent</t>
-  </si>
-  <si>
-    <t>.moodCode (nuances beyond PRP/PLAN/RQO would need to be elsewhere)</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of service</t>
-  </si>
-  <si>
-    <t>A code that classifies the service for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
-  </si>
-  <si>
-    <t>There may be multiple axis of categorization depending on the context or use case for retrieving or displaying the resource.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what service request are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Classification of the requested service.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/servicerequest-category|4.0.1</t>
-  </si>
-  <si>
-    <t>RF1-5</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="INT"].code</t>
-  </si>
-  <si>
-    <t>ServiceRequest.priority</t>
-  </si>
-  <si>
-    <t>routine | urgent | asap | stat</t>
-  </si>
-  <si>
-    <t>Indicates how quickly the ServiceRequest should be addressed with respect to other requests.</t>
-  </si>
-  <si>
-    <t>If missing, this task should be performed with normal priority</t>
-  </si>
-  <si>
-    <t>Identifies the level of importance to be assigned to actioning the request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.priority</t>
-  </si>
-  <si>
-    <t>TQ1.9, RF1-2</t>
-  </si>
-  <si>
-    <t>.priorityCode</t>
-  </si>
-  <si>
-    <t>FiveWs.grade</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>True if service/procedure should not be performed</t>
-  </si>
-  <si>
-    <t>Set this to true if the record is saying that the service/procedure should NOT be performed.</t>
-  </si>
-  <si>
-    <t>In general, only the code and timeframe will be present, though occasional additional qualifiers such as body site or even performer could be included to narrow the scope of the prohibition.  If the ServiceRequest.code and ServiceRequest.doNotPerform both contain negation, that will reinforce prohibition and should not have a double negative interpretation.</t>
-  </si>
-  <si>
-    <t>Used for do not ambulate, do not elevate head of bed, do not flush NG tube, do not take blood pressure on a certain arm, etc.</t>
-  </si>
-  <si>
-    <t>If missing, the request is a positive request e.g. "do perform"</t>
-  </si>
-  <si>
-    <t>Request.doNotPerform</t>
-  </si>
-  <si>
-    <t>.actionNegationInd</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service requested
-</t>
-  </si>
-  <si>
-    <t>What is being requested/ordered</t>
-  </si>
-  <si>
-    <t>A code that identifies a particular service (i.e., procedure, diagnostic investigation, or panel of investigations) that have been requested.</t>
-  </si>
-  <si>
-    <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
-  </si>
-  <si>
-    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred].</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-code|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.code</t>
-  </si>
-  <si>
-    <t>PR1-3 / OBR-4  (varies by domain)</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>Procedure.procedureCode</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension:code</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ServiceRequest.code}
-</t>
-  </si>
-  <si>
     <t>Cross-version extension for ServiceRequest.code from R5 for use in FHIR R4</t>
   </si>
   <si>
     <t>A code or reference that identifies a particular service (i.e., procedure, diagnostic investigation, or panel of investigations) that have been requested.</t>
   </si>
   <si>
-    <t>Element `ServiceRequest.code` has is mapped to FHIR R4 element `ServiceRequest.code`, but has no comparisons.</t>
+    <t>Element `ServiceRequest.code` is mapped to FHIR R4 element `ServiceRequest.code` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>ServiceRequest.code.coding</t>
@@ -999,14 +968,14 @@
     <t>orderDetail</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ServiceRequest.orderDetail}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ServiceRequest.orderDetail|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for ServiceRequest.orderDetail from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `ServiceRequest.orderDetail` has is mapped to FHIR R4 element `ServiceRequest.orderDetail`, but has no comparisons.</t>
+    <t>Element `ServiceRequest.orderDetail` is mapped to FHIR R4 element `ServiceRequest.orderDetail` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>ServiceRequest.orderDetail.coding</t>
@@ -1293,7 +1262,7 @@
     <t>A location type where services are delivered.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType|3.0.0</t>
   </si>
   <si>
     <t>.participation[typeCode=LOC].role[scoper.determinerCode=KIND].code</t>
@@ -1430,14 +1399,14 @@
     <t>supportingInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ServiceRequest.supportingInfo}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ServiceRequest.supportingInfo|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for ServiceRequest.supportingInfo from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `ServiceRequest.supportingInfo` has is mapped to FHIR R4 element `ServiceRequest.supportingInfo`, but has no comparisons.</t>
+    <t>Element `ServiceRequest.supportingInfo` is mapped to FHIR R4 element `ServiceRequest.supportingInfo` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>ServiceRequest.supportingInfo.reference</t>
@@ -1619,14 +1588,14 @@
     <t>patientInstruction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ServiceRequest.patientInstruction}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ServiceRequest.patientInstruction|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for ServiceRequest.patientInstruction from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `ServiceRequest.patientInstruction` has is mapped to FHIR R4 element `ServiceRequest.patientInstruction`, but has no comparisons.</t>
+    <t>Element `ServiceRequest.patientInstruction` is mapped to FHIR R4 element `ServiceRequest.patientInstruction` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1976,7 +1945,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO66"/>
+  <dimension ref="A1:AO64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2010,7 +1979,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="162.58984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.92578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="64.83203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2976,7 +2945,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2995,15 +2964,17 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>81</v>
@@ -3040,14 +3011,16 @@
         <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>140</v>
@@ -3071,7 +3044,7 @@
         <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>81</v>
@@ -3085,13 +3058,11 @@
         <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3104,24 +3075,26 @@
         <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>81</v>
       </c>
@@ -3169,7 +3142,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3190,7 +3163,7 @@
         <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>81</v>
@@ -3201,14 +3174,12 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>81</v>
       </c>
@@ -3217,7 +3188,7 @@
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>81</v>
@@ -3226,19 +3197,19 @@
         <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3288,7 +3259,7 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3300,34 +3271,34 @@
         <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>81</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3340,26 +3311,24 @@
         <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="J12" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>81</v>
       </c>
@@ -3407,7 +3376,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3419,16 +3388,16 @@
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>81</v>
@@ -3439,10 +3408,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3465,16 +3434,16 @@
         <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3524,7 +3493,7 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3539,19 +3508,19 @@
         <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>169</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
@@ -3563,7 +3532,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3582,17 +3551,15 @@
         <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N14" t="s" s="2">
         <v>174</v>
       </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>81</v>
@@ -3680,7 +3647,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3699,17 +3666,15 @@
         <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>81</v>
@@ -3773,13 +3738,13 @@
         <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>81</v>
@@ -3790,21 +3755,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>81</v>
@@ -3816,16 +3781,20 @@
         <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
       </c>
@@ -3873,13 +3842,13 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>81</v>
@@ -3888,13 +3857,13 @@
         <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -3905,41 +3874,43 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>193</v>
+        <v>110</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>81</v>
@@ -3964,13 +3935,13 @@
         <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>81</v>
@@ -3988,13 +3959,13 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>81</v>
@@ -4003,35 +3974,35 @@
         <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>81</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>90</v>
@@ -4040,26 +4011,24 @@
         <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>81</v>
       </c>
@@ -4083,13 +4052,13 @@
         <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>81</v>
@@ -4107,10 +4076,10 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>90</v>
@@ -4122,16 +4091,16 @@
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
@@ -4139,10 +4108,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4150,33 +4119,35 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>81</v>
       </c>
@@ -4200,13 +4171,13 @@
         <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>81</v>
@@ -4224,13 +4195,13 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>81</v>
@@ -4239,27 +4210,27 @@
         <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="AO19" t="s" s="2">
-        <v>219</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4267,7 +4238,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>90</v>
@@ -4276,7 +4247,7 @@
         <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>91</v>
@@ -4285,19 +4256,19 @@
         <v>110</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="R20" t="s" s="2">
         <v>81</v>
       </c>
@@ -4317,13 +4288,13 @@
         <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>81</v>
@@ -4341,10 +4312,10 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>90</v>
@@ -4356,16 +4327,16 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>133</v>
+        <v>234</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4373,10 +4344,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4387,36 +4358,38 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="R21" t="s" s="2">
         <v>81</v>
       </c>
@@ -4436,37 +4409,37 @@
         <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>235</v>
+        <v>81</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>236</v>
+        <v>81</v>
       </c>
       <c r="Z21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AA21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>229</v>
-      </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>81</v>
@@ -4475,16 +4448,16 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>81</v>
+        <v>244</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>238</v>
+        <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>228</v>
+        <v>81</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4492,14 +4465,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4518,22 +4491,22 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q22" t="s" s="2">
-        <v>243</v>
-      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
         <v>81</v>
       </c>
@@ -4553,13 +4526,13 @@
         <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>81</v>
@@ -4577,7 +4550,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4592,27 +4565,27 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>81</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4629,32 +4602,26 @@
         <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q23" t="s" s="2">
-        <v>256</v>
-      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
         <v>81</v>
       </c>
@@ -4698,7 +4665,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4710,16 +4677,16 @@
         <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4730,21 +4697,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
@@ -4753,20 +4720,18 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>136</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4791,58 +4756,58 @@
         <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>235</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>269</v>
+        <v>81</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>270</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
@@ -4850,9 +4815,11 @@
         <v>271</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>81</v>
       </c>
@@ -4873,15 +4840,17 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -4930,19 +4899,19 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>81</v>
@@ -4951,7 +4920,7 @@
         <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -4985,19 +4954,23 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>135</v>
+        <v>278</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>136</v>
+        <v>279</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
       </c>
@@ -5033,19 +5006,19 @@
         <v>81</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5057,16 +5030,16 @@
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -5077,14 +5050,12 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5102,21 +5073,23 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5164,28 +5137,28 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>81</v>
+        <v>292</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -5196,14 +5169,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>81</v>
+        <v>295</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5222,20 +5195,18 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>287</v>
+        <v>217</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5259,13 +5230,13 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
@@ -5283,7 +5254,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5292,7 +5263,7 @@
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>102</v>
@@ -5301,24 +5272,24 @@
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>81</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5338,23 +5309,19 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5402,7 +5369,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5414,16 +5381,16 @@
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -5434,14 +5401,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>304</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5457,20 +5424,18 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>230</v>
+        <v>136</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5495,31 +5460,31 @@
         <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>235</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>308</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>309</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5528,35 +5493,37 @@
         <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>310</v>
+        <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>311</v>
+        <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>270</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5565,7 +5532,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
@@ -5577,15 +5544,17 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5634,19 +5603,19 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>81</v>
@@ -5655,7 +5624,7 @@
         <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -5666,10 +5635,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5689,19 +5658,23 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>135</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>136</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5737,19 +5710,19 @@
         <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5761,16 +5734,16 @@
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5781,14 +5754,12 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
         <v>81</v>
       </c>
@@ -5797,7 +5768,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>81</v>
@@ -5806,21 +5777,23 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
       </c>
@@ -5868,28 +5841,28 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>81</v>
+        <v>292</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5900,10 +5873,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5914,7 +5887,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
@@ -5926,19 +5899,17 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5987,13 +5958,13 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
@@ -6005,10 +5976,10 @@
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -6019,10 +5990,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6030,7 +6001,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>90</v>
@@ -6045,20 +6016,16 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>81</v>
       </c>
@@ -6106,10 +6073,10 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>90</v>
@@ -6121,31 +6088,31 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>81</v>
+        <v>322</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>81</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6164,18 +6131,16 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>325</v>
-      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>81</v>
       </c>
@@ -6223,7 +6188,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6238,35 +6203,35 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>81</v>
+        <v>335</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>81</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>81</v>
+        <v>338</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>90</v>
@@ -6281,13 +6246,13 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6338,10 +6303,10 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>90</v>
@@ -6353,31 +6318,31 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>337</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6396,13 +6361,13 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6429,13 +6394,13 @@
         <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>81</v>
+        <v>352</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>81</v>
@@ -6453,7 +6418,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6468,31 +6433,31 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>341</v>
+        <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>344</v>
+        <v>81</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6511,13 +6476,13 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6568,7 +6533,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6583,31 +6548,31 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>355</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6626,15 +6591,17 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6659,13 +6626,13 @@
         <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>235</v>
+        <v>81</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>360</v>
+        <v>81</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>361</v>
+        <v>81</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>81</v>
@@ -6683,7 +6650,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6698,31 +6665,31 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>81</v>
+        <v>371</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>81</v>
+        <v>372</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6741,15 +6708,17 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>366</v>
+        <v>217</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6774,13 +6743,13 @@
         <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>81</v>
+        <v>381</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>81</v>
+        <v>382</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>81</v>
@@ -6798,7 +6767,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6813,38 +6782,38 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>373</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
@@ -6856,16 +6825,16 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6915,13 +6884,13 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
@@ -6930,38 +6899,38 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>384</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>386</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
@@ -6973,17 +6942,15 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -7008,13 +6975,13 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -7032,13 +6999,13 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
@@ -7047,16 +7014,16 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>392</v>
+        <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>393</v>
+        <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
@@ -7064,14 +7031,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>397</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7090,17 +7057,15 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -7149,7 +7114,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7164,16 +7129,16 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>402</v>
+        <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>403</v>
+        <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -7181,10 +7146,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7207,15 +7172,17 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7240,13 +7207,13 @@
         <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>81</v>
@@ -7264,7 +7231,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7279,16 +7246,16 @@
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>81</v>
+        <v>412</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>81</v>
+        <v>413</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -7296,10 +7263,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7322,15 +7289,17 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -7379,7 +7348,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7394,16 +7363,16 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>81</v>
+        <v>421</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>81</v>
+        <v>422</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
@@ -7411,10 +7380,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7434,20 +7403,18 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>230</v>
+        <v>425</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7472,13 +7439,13 @@
         <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>235</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>419</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>420</v>
+        <v>81</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>81</v>
@@ -7496,7 +7463,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7511,16 +7478,16 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>424</v>
+        <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -7528,14 +7495,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>81</v>
+        <v>432</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7551,19 +7518,19 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7613,7 +7580,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7628,16 +7595,16 @@
         <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>424</v>
+        <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>81</v>
@@ -7645,10 +7612,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7659,7 +7626,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>81</v>
@@ -7671,13 +7638,13 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>434</v>
+        <v>259</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>435</v>
+        <v>260</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>436</v>
+        <v>261</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7728,28 +7695,28 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>433</v>
+        <v>262</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>437</v>
+        <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>438</v>
+        <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>439</v>
+        <v>263</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -7760,14 +7727,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>441</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7786,17 +7753,15 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>442</v>
+        <v>136</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>443</v>
+        <v>265</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -7833,19 +7798,19 @@
         <v>81</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>440</v>
+        <v>270</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7857,16 +7822,16 @@
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>446</v>
+        <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>447</v>
+        <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>448</v>
+        <v>81</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -7877,12 +7842,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="D51" t="s" s="2">
         <v>81</v>
       </c>
@@ -7891,7 +7858,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>81</v>
@@ -7903,15 +7870,17 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>272</v>
+        <v>444</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>273</v>
+        <v>445</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -7960,19 +7929,19 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>81</v>
@@ -7981,7 +7950,7 @@
         <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -7992,10 +7961,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8006,7 +7975,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>81</v>
@@ -8015,18 +7984,20 @@
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>135</v>
+        <v>259</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>136</v>
+        <v>448</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8063,31 +8034,31 @@
         <v>81</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>279</v>
+        <v>451</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>81</v>
+        <v>452</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>81</v>
@@ -8096,7 +8067,7 @@
         <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8107,14 +8078,12 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8123,7 +8092,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
@@ -8132,19 +8101,19 @@
         <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>453</v>
+        <v>104</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>454</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8170,13 +8139,13 @@
         <v>81</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>81</v>
+        <v>457</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>81</v>
@@ -8194,19 +8163,19 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>279</v>
+        <v>460</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
@@ -8215,7 +8184,7 @@
         <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8226,10 +8195,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8252,16 +8221,16 @@
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>272</v>
+        <v>148</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8311,7 +8280,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8320,7 +8289,7 @@
         <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>461</v>
+        <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>102</v>
@@ -8332,7 +8301,7 @@
         <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8343,10 +8312,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8369,16 +8338,16 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>104</v>
+        <v>259</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8404,13 +8373,13 @@
         <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>466</v>
+        <v>81</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>467</v>
+        <v>81</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>468</v>
+        <v>81</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>81</v>
@@ -8428,7 +8397,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8460,10 +8429,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8474,7 +8443,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>81</v>
@@ -8486,16 +8455,16 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>161</v>
+        <v>472</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8545,13 +8514,13 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>81</v>
@@ -8563,10 +8532,10 @@
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>81</v>
+        <v>476</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>167</v>
+        <v>477</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -8577,21 +8546,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>81</v>
+        <v>479</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>81</v>
@@ -8603,18 +8572,20 @@
         <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>81</v>
       </c>
@@ -8638,13 +8609,13 @@
         <v>81</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>81</v>
+        <v>484</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>81</v>
+        <v>485</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>81</v>
@@ -8662,13 +8633,13 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>81</v>
@@ -8680,24 +8651,24 @@
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>81</v>
+        <v>476</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>133</v>
+        <v>486</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>81</v>
+        <v>487</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8717,20 +8688,18 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>482</v>
+        <v>50</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>81</v>
@@ -8779,7 +8748,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8794,38 +8763,38 @@
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>81</v>
+        <v>491</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>485</v>
+        <v>302</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>81</v>
+        <v>493</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>488</v>
+        <v>81</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>81</v>
@@ -8837,20 +8806,16 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
@@ -8874,37 +8839,37 @@
         <v>81</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>235</v>
+        <v>81</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>493</v>
+        <v>81</v>
       </c>
       <c r="Z59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF59" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="AA59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>487</v>
-      </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>81</v>
@@ -8916,24 +8881,24 @@
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>485</v>
+        <v>302</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>496</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8944,7 +8909,7 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>81</v>
@@ -8956,13 +8921,13 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>498</v>
+        <v>259</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>50</v>
+        <v>499</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9013,42 +8978,42 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>497</v>
+        <v>262</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>311</v>
+        <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>502</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9059,7 +9024,7 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>81</v>
@@ -9068,16 +9033,16 @@
         <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>272</v>
+        <v>136</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>504</v>
+        <v>265</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>505</v>
+        <v>266</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9116,40 +9081,38 @@
         <v>81</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="AC61" s="2"/>
       <c r="AD61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>503</v>
+        <v>270</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>311</v>
+        <v>81</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>506</v>
+        <v>81</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -9160,12 +9123,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="D62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9174,7 +9139,7 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>81</v>
@@ -9186,15 +9151,17 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>272</v>
+        <v>504</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>81</v>
@@ -9243,19 +9210,19 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>81</v>
+        <v>507</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>81</v>
@@ -9275,10 +9242,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9289,7 +9256,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
@@ -9301,13 +9268,13 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>135</v>
+        <v>259</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>136</v>
+        <v>509</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>137</v>
+        <v>510</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9331,7 +9298,7 @@
         <v>81</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>81</v>
+        <v>511</v>
       </c>
       <c r="X63" t="s" s="2">
         <v>81</v>
@@ -9346,29 +9313,31 @@
         <v>81</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC63" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>279</v>
+        <v>512</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>81</v>
@@ -9388,14 +9357,12 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
         <v>81</v>
       </c>
@@ -9416,16 +9383,16 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9475,7 +9442,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>279</v>
+        <v>513</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9484,256 +9451,24 @@
         <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>516</v>
+        <v>81</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>81</v>
+        <v>518</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>81</v>
+        <v>519</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="O66" s="2"/>
-      <c r="P66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO66" t="s" s="2">
         <v>81</v>
       </c>
     </row>
